--- a/500all/speech_level/speeches_CHRG-114hhrg97752.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97752.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,27 +52,18 @@
     <t>412435</t>
   </si>
   <si>
-    <t>William R. Keating</t>
-  </si>
-  <si>
     <t>for now attacks in New York and Washington, DC.    The administration has promised a strategy to counter online radicalization. That was in 2011. Four years later, we are still waiting on the strategy.    Not only that, we need to find better ways to deprive ISIS of their money. Their reign of terror is a result of having money to kill folks. Last year alone, ISIS made over $1 billion. They get money from ransom, killing endangered species in Africa, big dollar donors in the Middle East, taxing of locals that they control, and of course blood oil.    We need to start implementing a winning strategy against ISIS. Are we waiting to take the gloves off until ISIS commits a crime in the United States? It appears to me that we are on the defense, not the offense, when it comes to eliminating     The first step toward a better strategy is acknowledging the one that we have now is really not enough. So we must be honest with ourselves, and we must do everything possible.    The bottom line is, it is our obligation to protect the American people. Continuing to believe in a policy that doesn't fit the bill will continue to endanger us all. So what is the plan? What is the road to defeating ISIS?    And I will now yield to the ranking member for his opening comments.    Mr. Keating. Well, thank you, Mr. Chairman, and thank you for holding this hearing. I would like to thank our witnesses for being here.    As we conduct today's hearing it is important to keep in our minds first and foremost the victims and their families of these attacks in all the countries. I am the cochair of the French Caucus in the House. Just a few months ago, I was in Paris talking to counterterrorism officials and other officials who have worked very hard and were very aggressive in trying to deal with terrorist issues there, and still it just shows once again that these terrible events can occur despite how hard you work to prevent them from occurring.    And the title of the hearing asks whether the attacks in Paris represent a strategic shift in Daesh or ISIL. It clearly does. I am interested in our witnesses' perspectives on this question and hope that we will be able to have an informative discussion.    Whether or not they signal a major strategic shift--I think they do--however, the Paris attacks, together with the recent bombings in Beirut and the bombing of the Russian Metrojet in Egypt demonstrate an escalation of ISIL's or Daesh's terrorist activities outside of its bases for power in Iraq and Syria.    This is a concerning development, to say the least, one that has been met with a range of reactions from France and Turkey and Russia and the United States. What remains clear is that the United States and our international partners must work and communicate on all fronts to defeat ISIL.    ISIL is a unique threat because it is a global terrorist organization. Because it is, they have an apocalyptic view. And certainly it is a concern because they are translating that into significant territory. Its occupation provides substantial revenue through theft, extortion, taxation, and attracts foreign fighters drawn to the cause and supporting the supposed caliphate.    To defeat ISIL, we need to continue to assist our allies militarily to reverse the territorial gains made by ISIL, and we are making progress in this area. However, while ISIL suffers territorial losses in Iraq and Syria, it may ask to increasingly lash out at its enemies outside of the immediate region.    And in the longer term, however, according to its ideology, ISIL needs to control its territory to justify its existence. And ISIL, without significant territory, would be severely weakened.    But it is important to keep in mind that countering ISIL will require much more than military force. For example, we must do more to cut off ISIL's supply of money and manpower by more effectively countering terrorist recruitment, terrorist travel, and terrorist financing. We also need to work to counter ISIL's expanding influence beyond Iraq and Syria into its so-called provinces of Egypt, Libya, Nigeria, Afghanistan, and Pakistan, as well as other locations in Africa and Asia. And it is critical that we enhance and share counterterrorism intelligence and information with and among our international partners, particularly our European allies who are geographically closer to the Middle East and have seen greater numbers of foreign fighters travel to Iraq and Syria.    Ultimately, we also need to identify and address the root causes of why so many predominantly young adults are prepared to kill themselves in support of such a savage and morally bankrupt cause.    I look forward to hearing from our witnesses today about this threat post-Paris and how the United States and its partners can work together to mitigate and eventually overcome this threat.    I yield back, Mr. Chairman.</t>
   </si>
   <si>
     <t>400652</t>
   </si>
   <si>
-    <t>Ted Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. I thank the gentleman from Massachusetts.    I will now introduce the other cochair of the French Caucus, the gentleman from South Carolina, Mr. Wilson.</t>
   </si>
   <si>
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman. And thank you, Judge Poe, for your leadership on what is so important, the attacks in Paris.    And, indeed, this is bipartisan. I am grateful to work with Congressman Keating as cochair of the French Caucus. And it is personal to me. I am of French heritage and very grateful for that. And we appreciate and have great sympathy for America's first ally, France.    The Parisian attacks came just 1 day after the President claimed that ISIL was contained, further showing that his policy, I believe, to protect American families is a legacy of failure.    What we have, sadly, ISIL, Daesh, is an ability to effectively coordinate mass murders of civilians across the world. We must never forget 9/11. It is clear that defeating ISIL will require a much more coordinated effort comprised of a broad coalition of America and its allies in Europe and the Middle East. I look forward to the recommendations of the distinguished panel here today and the insights on how we might counter ISIL's strategy to commit atrocities worldwide.    Thank you.</t>
   </si>
   <si>
@@ -82,9 +73,6 @@
     <t>412513</t>
   </si>
   <si>
-    <t>Paul Cook</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cook. Thank you, Mr. Chairman.    I am going to be very, very brief. I just want to mention a hearing that I had this morning. I am also on the House Armed Services Committee, and we had an individual by the name of David Ignatius. He is actually a reporter for The Washington Post. And the subject was about ISIS. We talked about Paris, obviously. I thought the focus was going to be primarily on the military. But after listening to him, because he was talking about the history and the origins and everything else, which you really, really need to understand, where ISIS has been and where it is going and objectives and some of the things which the chair talked about.    It was an outstanding hearing. And I came away from it that I said maybe sometimes we have got to actually have a combination, like we did on that hearing that you had last week with Homeland Security, and where sometimes in the House Armed Services we are only focused on the military and we don't understand a lot of the foreign policy implications, the history, the religion, et cetera, et cetera, et cetera, something that was talked about.    But, anyway, I recommend that in the future. Maybe if we could do this. I was just shocked how at knowledgeable this individual was. His father, by the way, was the former Secretary of the Navy many years ago, probably when I was coming into the Marine Corps as a second lieutenant. As I remind everybody, the most dangerous weapon in the world is a second lieutenant with a map and a compass.    But it was a great hearing. And I look forward to the witnesses that we have today. The French, now more than ever, are one of our strongest allies and we have to make sure we stand with them.    Thank you.</t>
   </si>
   <si>
@@ -94,9 +82,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman. Thank you for letting me participate.    Two weeks ago I was in Paris, which was just a matter of days after the massacre, and it was an honor for me, along with Representative Gabbard, that we were able to place a crossed American and French flag there at the sight of the slaughter that took place and for us to meet with French officials at a very high level to reassure them that Americans stand with them.    We have had a special relationship with the French people since their crucial support for American independence during our struggle for our own freedom. Such a relationship and the supporting relationship as we have had is going to be ever more important in the years ahead, because we are entering into a new era of history. The Cold War is over. The post-Cold War is over. And this era may well be known as the era of Islamic terrorism.    But whatever they call it, we need to be supportive of all of those who are attacking and trying to defeat radical Islam, and that is especially true of countries like France.    Thank you.</t>
   </si>
   <si>
@@ -106,27 +91,18 @@
     <t xml:space="preserve">    Mr. Boot. Thank you very much, Mr. Chairman. It is a privilege to be here to talk about such an important subject.    You know, I don't think that the President is being honest about what our strategy against ISIS actually is, because the President says we are out to degrade and defeat ISIS. In fact, I think what we are really trying to do at the moment is to contain it. We don't have a strategy to defeat and to destroy ISIS. What we have is barely a strategy to contain it, which has not been successful, as we have seen.    While it is true that the scope of ISIS' territorial control in Iraq and Syria has been slightly decreased over the course of the last 6 months or so, shrunk slightly at the periphery, nevertheless, ISIS remains a potent threat. It maintains its hold on Mosul, Raqqa, Ramadi, Palmyra, and a lot of other territory. And it is not content to dominate this Islamic State, so-called, in Iraq and Syria. It is expanding rapidly to places like Libya. And as we have seen, of course, in the case of Paris, it is also expanding its terror networks abroad so that it can strike literally anywhere in the world.    I believe that we actually need a strategy to make good on what the President said we must do, which is to destroy ISIS. And what is that going to take? Well, it is going to take a lot more than what we are doing at the moment, even notwithstanding the slight escalation announced yesterday by Secretary Carter when he said that a joint special operations task force was going to join the fight. That is a good step, something I have called for, for more than a year, but it is going to be insufficient. We need an integrated military and political strategy to destroy ISIS.    And it is not sufficient simply to focus on areas such as countering ISIS finance or countering ISIS propaganda online. Those are both things that we need to do, but in the end they will not be decisive. As long as ISIS controls a state the size of the United Kingdom, it will continue to have a potent appeal for jihadists around the world.    The only way to break its appeal is to destroy its hold on its territory. And how do we do that? Well, I think what we need is more military action on the part of the United States and our allies, but we also need a political strategy, and those two have to be closely intertwined, something that is not the case today.    In terms of military action, clearly, I think we need a more intensive bombing campaign. I mean, it is literally incomprehensible to me why 75 percent of U.S. attack sorties are coming back to base without dropping their weapons. That suggests that we are waging an extraordinarily restrained campaign. As Mike Vickers, the former under secretary of defense for intelligence, pointed out recently, in 2 months in Afghanistan, in the fall of 2001, we have dropped more bombs than we have in the case of Iraq and Syria in something like a year and a half.    So clearly, we need to step up the bombing campaign. We need to make that bombing campaign more effective by allowing our joint tactical air controllers onto the battlefield where they can actually call in strikes in an aggressive and precise way while avoiding civilian collateral damage.    We need special operations teams on the battlefield. Again, as I mentioned a second ago, the fact that we are putting JSOC into the fight, I think, is a good step, but it is insufficient. At the end of the day, I don't think that special operators alone are going to be enough to win this battle. I think we also need to put more conventional forces onto the battlefield. And I would estimate something on the order of 20,000 to 30,000 troops will probably be required, which is well beyond the current level of about 3,500, but still well short of the 100,000-plus levels that we reached in Iraq at the height of the Iraq war.    I think those troops are necessary in order to galvanize and support a Sunni uprising against ISIS in both Iraq and Syria. And this is really the way that we are going to defeat this organization. We are going to turn its constituency against it.    And what is that going to take? Well, in the first place, we have to give the Sunnis some assurance that if they rise up, that we will stand with them, that we will fight alongside of them, that they will not simply be slaughtered by these butchers in ISIS. And to give them any kind of assurance, we need to have more troops who can work alongside of them and protect them and enable them to be effective against ISIS.    But we also and crucially need a political strategy. We need to assure them that if they get rid of ISIS, they are not going to simply replace the tyranny of ISIS with the tyranny of Iran. We need to push for Sunni autonomy within Iraq. We need to push in Syria for the ouster of Bashar Assad, who has killed far more people than ISIS ever has. We need to offer the Sunnis a political end state that is worth fighting for. And if we do that, and if we provide them with a slightly greater level of support, I believe we can be more far successful against ISIS than we have been to date.    Mr. Poe. Thank you, Mr. Boot.    Dr. Gartenstein-Ross, please, sir.</t>
   </si>
   <si>
-    <t>Gartenstein-Ross</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gartenstein-Ross. Chairman Poe, Ranking Member Keating, and distinguished members, it is an honor to be here to testify before you at this grave time. Apologies in advance for the fact that I am somewhat losing my voice. An infant plague has been running around my house, as many of you are familiar with.    On the specific question that the hearing asks, whether we are seeing a strategic shift on ISIS' part, my answer is no. I don't think this is the key question in the hearing. But I would submit that, in general, when the argument has been that a strategic shift is taking place, the presumption is that previously ISIS was much more focused in their own box. They were much more focus on building the caliphate and less so on carrying out attacks externally.    I would argue that they have been interested from the outset in carrying out external attacks. The best comprehensive treatment of this is written by two of my colleagues, Nathaniel Barr and Bridget Moreng, in Foreign Affairs recently. I have cited it in my testimony and actually adapted part of my testimony from their piece.    To quickly go over it, I think the rhetoric of ISIS has always suggested they were interested in carrying out attacks abroad.    Secondly, I think lone wolf attacks are very much misunderstood. Some of the lone wolf attacks they have engendered have indeed just been inspired by ISIS and had no connect to the organization. But others have been lone wolf attacks of individuals in Western societies who are actually taking orders from ISIS centrally. This was the case for several attackers in the United States who were inspired and directed by Junaid Hussein. This was also the case for a cell in Australia.    Finally, they previously attempted to carry out similar urban warfare-style attacks in the West. There is the plot that was broken up in Belgium back in January of this year, just about a week after the Charlie Hebdo massacre, in which the would-be attackers had grenades, small arms, and the kinds of things that were used in the Paris attack. Indeed, Abaaoud, one of the people who prepared the Paris attack, the ringleader of the Paris attack, had been in Belgium. So I think that previously they were trying to do this.    I do think that there are a couple of shifts we are likely to see on ISIS' part. One is, as they lose territory in Iraq and Syria, they are likely to devote more resources to carrying out terrorist attacks abroad. They have a narrative of strength. It is very important to them to demonstrate to their constituency that they are strong, that they are winning. That is one reason why their propaganda has always been so brutal. And I think that to show that they are strong, they will devote more resources to carrying out terrorist attacks abroad.    Secondly, I think that ISIS will show more of a focus on its near abroad, not just Iraq and Syria, but if you look at places like Libya in particular that they have expanded into, they clearly--and it was reported recently in a major publication--that ISIS is looking to make sure that they have continuity, that if they lose enough ground in Iraq and Syria that the caliphate is no longer viable there that they may shift the locus of their caliphate over to Sirte, a city in Libya that they currently control.    This is a very thorny problem set. Let's make no mistake about that. This is difficult because of all the many players that you have on the ground.    So a few things to consider. The first is that I do think that defeating ISIS on the battlefield is key. They made a very bold move when they declared a caliphate, and in declaring a caliphate, they staked their legitimacy upon maintaining territory. Territoriality is very important to them. And if they no longer have a viable caliphate, that threatens upending their legitimacy in a way that other jihadist groups are not vulnerable to.    Secondly, I agree with the note about social media and its importance to ISIS. Their narrative of strength is key. I testified before the Senate on this issue earlier this year. I cite to my Senate testimony in the written testimony you have received. But I think that we have not done a good job of puncturing this narrative of strength.    A lot of their so-called gains have often been very exaggerated, and in fact they have experienced a number of major losses, especially in Africa, over the course of this year that are virtually unknown. There is a lot of opportunity to puncture this narrative of invulnerability that they have set up for themselves.    Another thing I would like to point to is Sirte. I mentioned that, but right now we know that the Islamic State is very strong there. We aren't taking any sort of action to counter this other base that they have outside of Iraq and Syria. I think that we should heavily consider what we should do to counter their strength outside of their immediate theater and in their near abroad.    As I said, this is a very thorny problem set. ISIS does have vulnerabilities, and significant vulnerabilities, and I think part of solving this problem set is not just looking at their strengths, but also seeing how we can make their own vulnerabilities work against them.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. Thank you.    Mr. Weiss, statement, please.</t>
   </si>
   <si>
-    <t>Weiss</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weiss. Thank you, Chairman Poe and Ranking Member Keating. It is an honor and pleasure, while slightly depressing to be here, given the circumstances of the mass murder in one of the world's best and cosmopolitan cities 2 weeks ago.    Last month I was in Istanbul on assignment, interviewing a defector from ISIS. Not just any defector, he had actually served in what is called the amn al-dawleh, which is their state security apparatus. This is the branch of their intelligence wing, which has four main pillars, that Mohammed Emwazi, also known as Jihadi John, had served in. They are responsible for interrogation and detention. They are also responsible for essentially creating a border guard. If you leave their territory, you have to pass through checkpoints.    In some cases, they are responsible for training foreign operatives. And the guy that I was interviewing, I gave him the pseudonym Abu Khaled, told me--this was in mid-October, or late October--that he remembers training two French fighters. And I asked him, where did they go, where are they now? He said they went back to France.    After the Paris attacks, I got in touch with him, and he said, ``You know, I am more than 50 percent certain, if they weren't one of the suicide bombers or one of the gunmen who perpetrated the attacks, that they were involved in some way.'' He said to me, ``Michael, ISIS has got sleeper cells all over the world.'' They have from the very beginning had a foreign expeditionary wing and a foreign policy.    And one of the things that struck me by his relay of what it was like in the 11 months he spent in this organization, they are a state. They conceive of themselves as a state. I know that the United States likes to downplay this and pretend that, no, this is just a terrorist organization, it can and will be defeated quite easily, but that is not how ISIS portrays themselves. And more importantly, as some of the other witnesses have said, that is not how the constituents of ISIS, Sunni Arabs, particularly in the tribal regions of eastern Syria and western-central Iraq see it.    If you are a member of ISIS, gentlemen, you have free health care. And what do I mean by free health care? If you could go to the eye doctor, if you have a toothache, that is all paid for. If you have cancer, they will send you to Turkey so you can get chemotherapy and put you up in a hotel.    You get a salary that beats the band, particularly in war-torn Syria. If you have a wife, you get a subsidy for her. Your rent is free. If you have children, you get subsidies for each child. If you take care of your parents and your in-laws, you get subsidies for them as well. It is like joining the Communist Party in the decaying days of the Soviet Union. There is a nomenklatura, a new class of jihadists.    And part of this ideological propaganda and exportation is what I would call a jihadist internationale. There are main planks to this. We have all heard about the messianic, apocalyptic vision that they espouse. The end days will come in Dabiq, the suburb of Aleppo, where the armies of Rome will meet the armies of Islam, and Islam will be victorious.    But there is also a political project that underwrites this. Let's not forget, the people who run this organization standing behind Abu Bakr al-Baghdadi, where did they come from? A lot of them had served in Saddam Hussein's intelligence service, in his military, in the Ba'ath Party. They had training from the Soviet KGB and the Stasi. Abu Khaled, the ISIS defector, told me, ``Now, ISIS doesn't fight so well on the battlefield.'' And he would know, because he trained a lot of the infantry soldiers who went like lemmings to their death in Kobani. In fact, many of them defected or deserted and said, ``We don't want any part of this. We just get bombed the minute we turn up in a house in that city.''    I said, ``So how did they manage to take all this territory?'' He says, ``They have very good tradecraft.'' They are great at spying. They infiltrate rival organizations. If it is the Free Syrian Army, they send an agent into a brigade or battalion of the FSA equipped with $200,000 to $300,000 cash to essentially bribe his way to the top of that organization or the top of that military unit, and all of a sudden he starts manipulating and finessing the activities of the FSA. Some of these groups are backed by the United States and the so-called Friends of Syria.    ISIS takes over territory before the advancing columns of tanks and Humvees and shock troops. They have already cultivated a constituency. They spend a fortune.    Most of the money they are making, by the way--you talk a lot about oil sales, you talk a lot about smuggling of artifacts or human trafficking, that is not it. They have an entire bureaucracy that levies fines and taxes and surcharge on any violation that they deem to be abuse of their penal code or their sharia law.    If you are caught smoking cigarettes, you have to sit for 3 days in a cage in the town al-Bab, if you are in al-Bab, and Aleppo. You also have to pay a fine. If you flee from ISIS-held territory, your house, your property, all of your assets are confiscated. They have a very sophisticated repossession and eminent domain policy. Okay?    This is the reason they want to terrain, because with terrain comes people. They are ``governing,'' lording it over millions of people. And those millions of people are duty bound to pay taxes. I don't have to tell you what happens if they don't or if they defy ISIS or they try to flee.    Like any totalitarian political organization, the likes of which we have seen in the 20th century, there is a carrot-and-stick approach. There is a social outreach program: Come to the paradise of the caliphate, and you can have your Nutella, you can have your video games, you can have your bride, we will populate this land with the cubs and pearls of new generations who will know only life under the true Islam as it should be taught. And then, if you don't, or if you try to stand up or resist ISIS, you will be slaughtered.    You all remember the Al Anbar awakening in the mid-2000 period in Iraq, which was essentially a pragmatic relationship struck between the Sunni tribes and the U.S. military, not because the U.S. military was seen as a liberating force, but it was seen as a more credible alternative than al-Qaeda in Iraq, the head loppers and butchers and rapists and monopolists, the gangsters who stole money from these tribes.    There is no 101st Airborne. There is no 1st Armored Division in Iraq. What there is today, we call it the Iraqi Security Forces, but in reality it is a consortium of Shia militias backed and trained and armed by the Revolutionary Guard Corps of Iran. And many people in the Sunni heartland of Iraq see them as worse occupiers and worse conquerors than     I know it is difficult to wrap your head around this. The Western imagination is very limited in this respect. But believe you me, in Syria we are paying a lot of attention to the Kurds. And every time I go on television or I talk to somebody, all of a sudden the Kurds are going to liberate all of the Middle East.    I have a great deal of respect for the Kurds. I want an independent State of Kurdistan. But I respect them so much that I don't think they would be so foolhardy or stupid to march into Raqqa city or their Deir Ezzor city, much less Palmyra, much less Fallujah or Ramadi. That is just not their game. They are not interested in that, because they know they will be slaughtered.    This what I would call, this sort of strategic region, the Euphrates River Valley, where they are still very much entrenched--I mean, they have lost terrain in northern Syria, they have lost Sinjar, their supply lines across Syria and Iraq have been interdicted--but they are entrenched in the part of those two countries that matters most to them. And the reason is because nobody is coming and presenting a more credible alternative to ISIS. This is the fundamental reality that needs to be appreciated by the United States Government.    A final point. In 2003, when the U.S. invaded Iraq, Abu Musab al-Zarqawi, the founder of the organization known as ISIS, essentially made the case that the United States stupidly blundered into this country and accidentally handed it to the Islamic Republic of Iran. Today, ISIS isn't so sure it was an accident. What they are saying is, actually, no, there is a new coalition of the willing. It is the United States, Russia, mobilized, of course, by the Jews, backed now by Iran, the Shia militias and death squads of Syria and Iraq, Lebanese Hezbollah, and all the apostate or tyrannical Arab regimes in the Middle East and Turkey. There is what I would call a caliphate contra mundum conspiracy theory that ISIS is putting forward.    And the dangerous thing is, if you travel to the region, and I do it a lot, and you talk to Sunnis, they have a hard time telling where ISIS conspiracy theory ends and U.S. foreign policy begins. On a bad day, so do I, frankly. You know, how is that Russia has been allowed to establish a no-fly zone, bombing not ISIS, as even ISIS says in its latest issue of Dabiq, its propaganda magazine, but bombing Free Syrian Army and rebel groups that are fighting both Assad--actually, Assad, Hezbollah, the IRGC, ISIS, and Jabhat al-Nusra all at once, and doing so with, on occasion, sophisticated weapons, but more often than not AK-47s and hand grenades.    You know, this is the thing, geopolitics matters to ISIS. They pay much closer attention to our policy debates and our discussions--they may be watching us on C-SPAN for all I know--than we do to what they are doing in their own terrain, in their own territory.    And, look, if you look at the profiles of these foreign fighters, if you look at the profiles of people who are conducting these terror spectaculars or operations abroad, it is almost out of central casting. They are not fanatical Muslims by birth. In fact, they are first generation. Their parents came to Europe. They made a good trade. They had a good living. They sent their kids to good universities or good finishing schools. And these kids become radicalized remotely. They turn on the television. They see American warplanes dropping bombs on Muslim babies. ISIS is exploiting that like you wouldn't believe.    We look at their atrocities, the immolation of a Jordanian airman. What we are not paying attention to is the other 20 minutes of the video where they are showing literally infants being pulled from the rubble and saying this was courtesy of a Jordanian or Saudi or American bomb. It is very compelling. It is very compelling.    And you don't have to be even a Muslim, much less a pious one or an Islamist, to find it so. And this is the pool of not even hardcore ideologues and supporters, but what I would call the fellow travelers of ISIS that they are drawing strength from. And, indeed, I mean, you may not be interested in the Middle East, but the Middle East is interested in you.    And this is the thing. The leitmotif of U.S. foreign policy today is the more we absent ourselves, the more equilibrium will rise. Qasem Soleimani can be the next David Petraeus. I have got news for you: We are at a more dangerous period now than we were immediately after 9/11, because right now the level of anti-Americanism, it is actually--some of it is grounded in fact. Some of it is grounded in a crushing reality. Five years of attritional warfare, where Bashar Assad has dropped chemical weapons, barrel bombs, you name it, everything but biological and nuclear weapons on his own people, targeting whom? The Sunnis, the exact people we are going to need to fight and defeat ISIS.    And in Iraq, 5 years of tolerating the thuggish regime of Nouri al-Maliki and now providing close air support to who? IRGC-backed proxy groups and militias who are liberating Tikrit only after U.S. F-16s come in. The Sunnis look at us like they hope this is a conspiracy, because if it is incompetence, then they absolutely have no faith in the United States.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Weiss.    Mr. Sanderson.</t>
   </si>
   <si>
-    <t>Sanderson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sanderson. Thank you, Chairman Poe and Ranking Member Keating and distinguished members of the subcommittee for the honor and opportunity to testify before you today on the challenge of ISIS following these recent attacks in Paris, Beirut, and in the skies over Egypt's Sinai Peninsula. I come to you with a perspective of from field work on terrorism and conflict across nearly 70 countries over the last 15 years. This includes interviews this year with current and former ISIS members who ply the border on Turkey's side quite freely.    The question before us today is whether these attacks represent a strategic shift for ISIS, what policy options the U.S. might have, and how those attacks are impacting our understanding of ISIS.    First, the attacks. I do not believe that the three strikes represent a fundamental shift for ISIS, but rather a logical evolution for an organization that is under heavy pressure in some areas, has always looked to strike its enemies, and one which has designs on territory well beyond Syria and Iraq.    But just because these attacks may not be unsurprising does not mean we should not be alarmed. ISIS has claimed three strikes, two conducted by cells trained in Syria and one in Egypt conducted by an ISIS affiliate, which signal that the threat is growing, is very bold, technically adept with both encrypted communications and bomb miniaturization, and that expeditionary, out-of-area attacks are to be expected. We should act aggressively and smartly in countering them.    ISIS has long called for strikes on states such as France, a nation for which ISIS has tremendous hatred and disdain. ISIS also counts hundreds, if not thousands of members who hail from France, affording them plenty of French passport holders who can maneuver in the country, across Europe, and into the United States.    The attack in Lebanon was a bold move for ISIS and was likely carried out in retaliation for Hezbollah's support to the Syrian military. In Egypt, the ISIS affiliate, Sinai Province, has battled with Egyptian forces for years. The group is well aware of Russia's friendship with President Sisi of Egypt and with President Assad of Syria and is certainly mindful of Russia's disposition toward its own citizens who have joined ISIS. And of course, it is likely that the attack on the Russian airliner was as much targeted at Egypt's tourism industry, and by extension the Sisi government in Cairo, as it was on the Russians themselves.    It is important for us to look at statements from ISIS over the past couple of years to understand how these attacks, especially Paris, fit in with the ISIS strategy. The ISIS strategy is focused on establishing and protecting its territory along the Syria-Iraq border and to build influence beyond that space. ISIS has reached out to Muslims the world over calling them to help run, build, and defend the Muslim caliphate. These calls often came with encouragement to attack ISIS enemies and promises that one day they will conquer Rome, shorthand for much of the West.    In the October 2014 issue of their English language publication Dabiq, ISIS spoke of targeting the West and others in the coalition. This included statements such as,        ``At this point in the crusade against the Islamic         State, it is important that attacks take place in every         country that has entered into the alliance against the         Islamic State, especially the U.S., U.K., France,         Australia, and Germany. Every Muslim should get out of         his house, find a crusader and kill them, and the         Islamic State will remain until its banner flies over         Rome.''    It is also important to note that over the last 2 years ISIS has accepted pledges of loyalty from fighters from around the globe, including Libya, Egypt, Yemen, Nigeria, Russia, the Philippines, Pakistan, and many others, further expanding the ISIS footprint on the globe and reminding us that their base in Syria and Iraq is not the extent of their ambition.    What should these attacks tell us about ISIS? Well, the attacks signal that ISIS intends to strike where necessary and when pressured. I fully expect them to target the United States and other members of the anti-ISIS coalition, and of course they have said that they are going to do that. For a group that is so focused on imagery, as seen in the thousands of well-choreographed messages, images, videos distributed every day, this is a group that must be seen as making progress.    These three attacks also tell us that ISIS, its affiliates, and supported cells, are able to strike successfully in hostile territory. In Paris, ISIS executed multiple attacks with several individuals moving between France, Syria, and Belgium, and did so in the midst of very competent law enforcement and intelligence agencies. In Lebanon, ISIS was able to operate covertly in a denied area crawling with highly suspicious, alert, and well-armed, well-trained Lebanese Hezbollah. Finally, in Egypt, ISIS affiliate Sinai Province was able to penetrate airport security and emplace a bomb that destroyed a Russian airliner, killing 224 people.    These successful attacks are alarming for reasons far beyond the skillful tradecraft that was put on display. The impact is also felt in the recruiting realm. Given that ISIS offers a sense of mission, purpose, adventure, and revenge for young radicalized people, such attacks serve as a tremendous stimulant for these potential recruits. The attacks also demonstrate the possibilities for lone wolves or organized cells and signal that ISIS can make them happen over distance, in unfriendly spaces, and for little cost. From their perch on the margins of society, potential ISIS members witnessed the Paris, Beirut, and Sinai operations, and they want in on that action.    Let's now consider the implications and possible responses. The most recent ISIS attacks present troubling implications for U.S. security and our anti-ISIS strategy. In Lebanon, ISIS has struck the state that remains fragile and which borders Israel and is home to 1 million Syrian refugees. The attack on the Russian airliner demonstrates that commercial aviation remains a very attractive, viable target for terrorists.    The Paris attack offers the most significant concern for U.S. security. This long distance, sophisticated, high-risk ISIS operation succeeded on all levels. A leading member of the anti-ISIS coalition and close ally of the U.S. suffered a dramatic blow.    With these examples and others in hand, it is not difficult to envision ISIS supporting a cell or lone wolves in similar operations inside the U.S. This would represent a bigger challenge for ISIS, but I do not think it is impossible by any means.    Our response must be well conceived, precise, forceful, multidimensional, integrated, and enduring. But I will state upfront, I do not have a lot of confidence that we will succeed in many visible and tangible ways. Our country is not currently in the right frame of mind to take on this challenge. Many of our partners are incredibly problematic and the conditions and factors at play are so numerous and immensely complicated that I hardly know where to begin.    Let me suggest some of the key actions that are needed in a campaign to gain some advantage in what will turn out to be an evolution in the violence and not a clear-cut victory. The Obama administration's objection to putting large forces on the ground is well-founded, but we need a much more aggressive posture in what we are doing now.    The most important things we can strive for are political progress in both Syria and Iraq, ISIS leadership decapitation, more targeted strikes from the air, more flexible ROE with those strikes, territory denial, counterfinance and countermessaging.    To make some progress in these areas we need to strengthen efforts at diplomacy, intelligence, special operations, the air strikes, training local forces, anticorruption, counterradicalization, good governance, and by addressing socioeconomic and political conditions where ISIS operates and, importantly, where they recruit. That list is a very tall order and it is not even exhaustive.    I realize that we have ongoing efforts in each of these areas, but we clearly need to do more. We know what ISIS can do and we know where else they want to take the battle. So it is time to come together politically and to attack ISIS aggressively and intelligently. And if we as Americans lead, others will stand with us. Let's not wait for Washington to be hit before doing what is right and what is possible.</t>
   </si>
   <si>
@@ -220,9 +196,6 @@
     <t>400641</t>
   </si>
   <si>
-    <t>Brian Higgins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Mr. Chairman.    Mr. Weiss, you were making a point during my colleague's questioning that you said was important. Do you want to finish it?</t>
   </si>
   <si>
@@ -284,9 +257,6 @@
   </si>
   <si>
     <t>412595</t>
-  </si>
-  <si>
-    <t>Robin L. Kelly</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Kelly. Since my day has started, it seems like I have been in meetings dealing with this topic. And one thing that came up was about Turkey and their questionable partnership, are they really true partners. Another meeting I was in, they spoke about how porous their borders are and a lot of things are going through Turkey that are causing problems for the United States and others.    What do you think that we can do to truly get them committed to defeating ISIS, or what can NATO do, if you think they aren't true partners or really committed?</t>
@@ -730,11 +700,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -754,13 +722,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -780,13 +746,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -806,13 +770,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -832,13 +794,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -858,13 +818,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -884,13 +842,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -910,13 +866,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -936,13 +890,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -962,13 +914,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -988,13 +938,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1014,13 +962,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1040,13 +986,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1066,13 +1010,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1092,13 +1034,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1118,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1144,13 +1082,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1170,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1198,11 +1132,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1222,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1250,11 +1180,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1274,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1302,11 +1228,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1326,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1354,11 +1276,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1378,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1406,11 +1324,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1430,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1458,11 +1372,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1482,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1510,11 +1420,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1534,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1562,11 +1468,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1586,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1612,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1638,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1664,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1690,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1716,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1742,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1768,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1794,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1820,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1846,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1872,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1898,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1924,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1950,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1976,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2002,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
-      </c>
-      <c r="G51" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2028,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2054,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
         <v>68</v>
-      </c>
-      <c r="H53" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2080,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2106,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2132,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2158,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2184,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2210,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
-      </c>
-      <c r="G59" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2236,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2262,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G61" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2288,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
-      </c>
-      <c r="G62" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2314,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
-      </c>
-      <c r="G63" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2340,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2366,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>89</v>
-      </c>
-      <c r="G65" t="s">
-        <v>90</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2392,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2418,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>89</v>
-      </c>
-      <c r="G67" t="s">
-        <v>90</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2444,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2470,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2496,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2524,11 +2356,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2548,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2574,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2600,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2626,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2652,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2678,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>67</v>
-      </c>
-      <c r="G77" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2704,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2730,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97752.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97752.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,18 +55,36 @@
     <t>412435</t>
   </si>
   <si>
+    <t>Keating</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
     <t>for now attacks in New York and Washington, DC.    The administration has promised a strategy to counter online radicalization. That was in 2011. Four years later, we are still waiting on the strategy.    Not only that, we need to find better ways to deprive ISIS of their money. Their reign of terror is a result of having money to kill folks. Last year alone, ISIS made over $1 billion. They get money from ransom, killing endangered species in Africa, big dollar donors in the Middle East, taxing of locals that they control, and of course blood oil.    We need to start implementing a winning strategy against ISIS. Are we waiting to take the gloves off until ISIS commits a crime in the United States? It appears to me that we are on the defense, not the offense, when it comes to eliminating     The first step toward a better strategy is acknowledging the one that we have now is really not enough. So we must be honest with ourselves, and we must do everything possible.    The bottom line is, it is our obligation to protect the American people. Continuing to believe in a policy that doesn't fit the bill will continue to endanger us all. So what is the plan? What is the road to defeating ISIS?    And I will now yield to the ranking member for his opening comments.    Mr. Keating. Well, thank you, Mr. Chairman, and thank you for holding this hearing. I would like to thank our witnesses for being here.    As we conduct today's hearing it is important to keep in our minds first and foremost the victims and their families of these attacks in all the countries. I am the cochair of the French Caucus in the House. Just a few months ago, I was in Paris talking to counterterrorism officials and other officials who have worked very hard and were very aggressive in trying to deal with terrorist issues there, and still it just shows once again that these terrible events can occur despite how hard you work to prevent them from occurring.    And the title of the hearing asks whether the attacks in Paris represent a strategic shift in Daesh or ISIL. It clearly does. I am interested in our witnesses' perspectives on this question and hope that we will be able to have an informative discussion.    Whether or not they signal a major strategic shift--I think they do--however, the Paris attacks, together with the recent bombings in Beirut and the bombing of the Russian Metrojet in Egypt demonstrate an escalation of ISIL's or Daesh's terrorist activities outside of its bases for power in Iraq and Syria.    This is a concerning development, to say the least, one that has been met with a range of reactions from France and Turkey and Russia and the United States. What remains clear is that the United States and our international partners must work and communicate on all fronts to defeat ISIL.    ISIL is a unique threat because it is a global terrorist organization. Because it is, they have an apocalyptic view. And certainly it is a concern because they are translating that into significant territory. Its occupation provides substantial revenue through theft, extortion, taxation, and attracts foreign fighters drawn to the cause and supporting the supposed caliphate.    To defeat ISIL, we need to continue to assist our allies militarily to reverse the territorial gains made by ISIL, and we are making progress in this area. However, while ISIL suffers territorial losses in Iraq and Syria, it may ask to increasingly lash out at its enemies outside of the immediate region.    And in the longer term, however, according to its ideology, ISIL needs to control its territory to justify its existence. And ISIL, without significant territory, would be severely weakened.    But it is important to keep in mind that countering ISIL will require much more than military force. For example, we must do more to cut off ISIL's supply of money and manpower by more effectively countering terrorist recruitment, terrorist travel, and terrorist financing. We also need to work to counter ISIL's expanding influence beyond Iraq and Syria into its so-called provinces of Egypt, Libya, Nigeria, Afghanistan, and Pakistan, as well as other locations in Africa and Asia. And it is critical that we enhance and share counterterrorism intelligence and information with and among our international partners, particularly our European allies who are geographically closer to the Middle East and have seen greater numbers of foreign fighters travel to Iraq and Syria.    Ultimately, we also need to identify and address the root causes of why so many predominantly young adults are prepared to kill themselves in support of such a savage and morally bankrupt cause.    I look forward to hearing from our witnesses today about this threat post-Paris and how the United States and its partners can work together to mitigate and eventually overcome this threat.    I yield back, Mr. Chairman.</t>
   </si>
   <si>
     <t>400652</t>
   </si>
   <si>
+    <t>Poe</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Poe. I thank the gentleman from Massachusetts.    I will now introduce the other cochair of the French Caucus, the gentleman from South Carolina, Mr. Wilson.</t>
   </si>
   <si>
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman. And thank you, Judge Poe, for your leadership on what is so important, the attacks in Paris.    And, indeed, this is bipartisan. I am grateful to work with Congressman Keating as cochair of the French Caucus. And it is personal to me. I am of French heritage and very grateful for that. And we appreciate and have great sympathy for America's first ally, France.    The Parisian attacks came just 1 day after the President claimed that ISIL was contained, further showing that his policy, I believe, to protect American families is a legacy of failure.    What we have, sadly, ISIL, Daesh, is an ability to effectively coordinate mass murders of civilians across the world. We must never forget 9/11. It is clear that defeating ISIL will require a much more coordinated effort comprised of a broad coalition of America and its allies in Europe and the Middle East. I look forward to the recommendations of the distinguished panel here today and the insights on how we might counter ISIL's strategy to commit atrocities worldwide.    Thank you.</t>
   </si>
   <si>
@@ -73,6 +94,12 @@
     <t>412513</t>
   </si>
   <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cook. Thank you, Mr. Chairman.    I am going to be very, very brief. I just want to mention a hearing that I had this morning. I am also on the House Armed Services Committee, and we had an individual by the name of David Ignatius. He is actually a reporter for The Washington Post. And the subject was about ISIS. We talked about Paris, obviously. I thought the focus was going to be primarily on the military. But after listening to him, because he was talking about the history and the origins and everything else, which you really, really need to understand, where ISIS has been and where it is going and objectives and some of the things which the chair talked about.    It was an outstanding hearing. And I came away from it that I said maybe sometimes we have got to actually have a combination, like we did on that hearing that you had last week with Homeland Security, and where sometimes in the House Armed Services we are only focused on the military and we don't understand a lot of the foreign policy implications, the history, the religion, et cetera, et cetera, et cetera, something that was talked about.    But, anyway, I recommend that in the future. Maybe if we could do this. I was just shocked how at knowledgeable this individual was. His father, by the way, was the former Secretary of the Navy many years ago, probably when I was coming into the Marine Corps as a second lieutenant. As I remind everybody, the most dangerous weapon in the world is a second lieutenant with a map and a compass.    But it was a great hearing. And I look forward to the witnesses that we have today. The French, now more than ever, are one of our strongest allies and we have to make sure we stand with them.    Thank you.</t>
   </si>
   <si>
@@ -82,6 +109,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman. Thank you for letting me participate.    Two weeks ago I was in Paris, which was just a matter of days after the massacre, and it was an honor for me, along with Representative Gabbard, that we were able to place a crossed American and French flag there at the sight of the slaughter that took place and for us to meet with French officials at a very high level to reassure them that Americans stand with them.    We have had a special relationship with the French people since their crucial support for American independence during our struggle for our own freedom. Such a relationship and the supporting relationship as we have had is going to be ever more important in the years ahead, because we are entering into a new era of history. The Cold War is over. The post-Cold War is over. And this era may well be known as the era of Islamic terrorism.    But whatever they call it, we need to be supportive of all of those who are attacking and trying to defeat radical Islam, and that is especially true of countries like France.    Thank you.</t>
   </si>
   <si>
@@ -91,18 +121,27 @@
     <t xml:space="preserve">    Mr. Boot. Thank you very much, Mr. Chairman. It is a privilege to be here to talk about such an important subject.    You know, I don't think that the President is being honest about what our strategy against ISIS actually is, because the President says we are out to degrade and defeat ISIS. In fact, I think what we are really trying to do at the moment is to contain it. We don't have a strategy to defeat and to destroy ISIS. What we have is barely a strategy to contain it, which has not been successful, as we have seen.    While it is true that the scope of ISIS' territorial control in Iraq and Syria has been slightly decreased over the course of the last 6 months or so, shrunk slightly at the periphery, nevertheless, ISIS remains a potent threat. It maintains its hold on Mosul, Raqqa, Ramadi, Palmyra, and a lot of other territory. And it is not content to dominate this Islamic State, so-called, in Iraq and Syria. It is expanding rapidly to places like Libya. And as we have seen, of course, in the case of Paris, it is also expanding its terror networks abroad so that it can strike literally anywhere in the world.    I believe that we actually need a strategy to make good on what the President said we must do, which is to destroy ISIS. And what is that going to take? Well, it is going to take a lot more than what we are doing at the moment, even notwithstanding the slight escalation announced yesterday by Secretary Carter when he said that a joint special operations task force was going to join the fight. That is a good step, something I have called for, for more than a year, but it is going to be insufficient. We need an integrated military and political strategy to destroy ISIS.    And it is not sufficient simply to focus on areas such as countering ISIS finance or countering ISIS propaganda online. Those are both things that we need to do, but in the end they will not be decisive. As long as ISIS controls a state the size of the United Kingdom, it will continue to have a potent appeal for jihadists around the world.    The only way to break its appeal is to destroy its hold on its territory. And how do we do that? Well, I think what we need is more military action on the part of the United States and our allies, but we also need a political strategy, and those two have to be closely intertwined, something that is not the case today.    In terms of military action, clearly, I think we need a more intensive bombing campaign. I mean, it is literally incomprehensible to me why 75 percent of U.S. attack sorties are coming back to base without dropping their weapons. That suggests that we are waging an extraordinarily restrained campaign. As Mike Vickers, the former under secretary of defense for intelligence, pointed out recently, in 2 months in Afghanistan, in the fall of 2001, we have dropped more bombs than we have in the case of Iraq and Syria in something like a year and a half.    So clearly, we need to step up the bombing campaign. We need to make that bombing campaign more effective by allowing our joint tactical air controllers onto the battlefield where they can actually call in strikes in an aggressive and precise way while avoiding civilian collateral damage.    We need special operations teams on the battlefield. Again, as I mentioned a second ago, the fact that we are putting JSOC into the fight, I think, is a good step, but it is insufficient. At the end of the day, I don't think that special operators alone are going to be enough to win this battle. I think we also need to put more conventional forces onto the battlefield. And I would estimate something on the order of 20,000 to 30,000 troops will probably be required, which is well beyond the current level of about 3,500, but still well short of the 100,000-plus levels that we reached in Iraq at the height of the Iraq war.    I think those troops are necessary in order to galvanize and support a Sunni uprising against ISIS in both Iraq and Syria. And this is really the way that we are going to defeat this organization. We are going to turn its constituency against it.    And what is that going to take? Well, in the first place, we have to give the Sunnis some assurance that if they rise up, that we will stand with them, that we will fight alongside of them, that they will not simply be slaughtered by these butchers in ISIS. And to give them any kind of assurance, we need to have more troops who can work alongside of them and protect them and enable them to be effective against ISIS.    But we also and crucially need a political strategy. We need to assure them that if they get rid of ISIS, they are not going to simply replace the tyranny of ISIS with the tyranny of Iran. We need to push for Sunni autonomy within Iraq. We need to push in Syria for the ouster of Bashar Assad, who has killed far more people than ISIS ever has. We need to offer the Sunnis a political end state that is worth fighting for. And if we do that, and if we provide them with a slightly greater level of support, I believe we can be more far successful against ISIS than we have been to date.    Mr. Poe. Thank you, Mr. Boot.    Dr. Gartenstein-Ross, please, sir.</t>
   </si>
   <si>
+    <t>Gartenstein-Ross</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gartenstein-Ross. Chairman Poe, Ranking Member Keating, and distinguished members, it is an honor to be here to testify before you at this grave time. Apologies in advance for the fact that I am somewhat losing my voice. An infant plague has been running around my house, as many of you are familiar with.    On the specific question that the hearing asks, whether we are seeing a strategic shift on ISIS' part, my answer is no. I don't think this is the key question in the hearing. But I would submit that, in general, when the argument has been that a strategic shift is taking place, the presumption is that previously ISIS was much more focused in their own box. They were much more focus on building the caliphate and less so on carrying out attacks externally.    I would argue that they have been interested from the outset in carrying out external attacks. The best comprehensive treatment of this is written by two of my colleagues, Nathaniel Barr and Bridget Moreng, in Foreign Affairs recently. I have cited it in my testimony and actually adapted part of my testimony from their piece.    To quickly go over it, I think the rhetoric of ISIS has always suggested they were interested in carrying out attacks abroad.    Secondly, I think lone wolf attacks are very much misunderstood. Some of the lone wolf attacks they have engendered have indeed just been inspired by ISIS and had no connect to the organization. But others have been lone wolf attacks of individuals in Western societies who are actually taking orders from ISIS centrally. This was the case for several attackers in the United States who were inspired and directed by Junaid Hussein. This was also the case for a cell in Australia.    Finally, they previously attempted to carry out similar urban warfare-style attacks in the West. There is the plot that was broken up in Belgium back in January of this year, just about a week after the Charlie Hebdo massacre, in which the would-be attackers had grenades, small arms, and the kinds of things that were used in the Paris attack. Indeed, Abaaoud, one of the people who prepared the Paris attack, the ringleader of the Paris attack, had been in Belgium. So I think that previously they were trying to do this.    I do think that there are a couple of shifts we are likely to see on ISIS' part. One is, as they lose territory in Iraq and Syria, they are likely to devote more resources to carrying out terrorist attacks abroad. They have a narrative of strength. It is very important to them to demonstrate to their constituency that they are strong, that they are winning. That is one reason why their propaganda has always been so brutal. And I think that to show that they are strong, they will devote more resources to carrying out terrorist attacks abroad.    Secondly, I think that ISIS will show more of a focus on its near abroad, not just Iraq and Syria, but if you look at places like Libya in particular that they have expanded into, they clearly--and it was reported recently in a major publication--that ISIS is looking to make sure that they have continuity, that if they lose enough ground in Iraq and Syria that the caliphate is no longer viable there that they may shift the locus of their caliphate over to Sirte, a city in Libya that they currently control.    This is a very thorny problem set. Let's make no mistake about that. This is difficult because of all the many players that you have on the ground.    So a few things to consider. The first is that I do think that defeating ISIS on the battlefield is key. They made a very bold move when they declared a caliphate, and in declaring a caliphate, they staked their legitimacy upon maintaining territory. Territoriality is very important to them. And if they no longer have a viable caliphate, that threatens upending their legitimacy in a way that other jihadist groups are not vulnerable to.    Secondly, I agree with the note about social media and its importance to ISIS. Their narrative of strength is key. I testified before the Senate on this issue earlier this year. I cite to my Senate testimony in the written testimony you have received. But I think that we have not done a good job of puncturing this narrative of strength.    A lot of their so-called gains have often been very exaggerated, and in fact they have experienced a number of major losses, especially in Africa, over the course of this year that are virtually unknown. There is a lot of opportunity to puncture this narrative of invulnerability that they have set up for themselves.    Another thing I would like to point to is Sirte. I mentioned that, but right now we know that the Islamic State is very strong there. We aren't taking any sort of action to counter this other base that they have outside of Iraq and Syria. I think that we should heavily consider what we should do to counter their strength outside of their immediate theater and in their near abroad.    As I said, this is a very thorny problem set. ISIS does have vulnerabilities, and significant vulnerabilities, and I think part of solving this problem set is not just looking at their strengths, but also seeing how we can make their own vulnerabilities work against them.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. Thank you.    Mr. Weiss, statement, please.</t>
   </si>
   <si>
+    <t>Weiss</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weiss. Thank you, Chairman Poe and Ranking Member Keating. It is an honor and pleasure, while slightly depressing to be here, given the circumstances of the mass murder in one of the world's best and cosmopolitan cities 2 weeks ago.    Last month I was in Istanbul on assignment, interviewing a defector from ISIS. Not just any defector, he had actually served in what is called the amn al-dawleh, which is their state security apparatus. This is the branch of their intelligence wing, which has four main pillars, that Mohammed Emwazi, also known as Jihadi John, had served in. They are responsible for interrogation and detention. They are also responsible for essentially creating a border guard. If you leave their territory, you have to pass through checkpoints.    In some cases, they are responsible for training foreign operatives. And the guy that I was interviewing, I gave him the pseudonym Abu Khaled, told me--this was in mid-October, or late October--that he remembers training two French fighters. And I asked him, where did they go, where are they now? He said they went back to France.    After the Paris attacks, I got in touch with him, and he said, ``You know, I am more than 50 percent certain, if they weren't one of the suicide bombers or one of the gunmen who perpetrated the attacks, that they were involved in some way.'' He said to me, ``Michael, ISIS has got sleeper cells all over the world.'' They have from the very beginning had a foreign expeditionary wing and a foreign policy.    And one of the things that struck me by his relay of what it was like in the 11 months he spent in this organization, they are a state. They conceive of themselves as a state. I know that the United States likes to downplay this and pretend that, no, this is just a terrorist organization, it can and will be defeated quite easily, but that is not how ISIS portrays themselves. And more importantly, as some of the other witnesses have said, that is not how the constituents of ISIS, Sunni Arabs, particularly in the tribal regions of eastern Syria and western-central Iraq see it.    If you are a member of ISIS, gentlemen, you have free health care. And what do I mean by free health care? If you could go to the eye doctor, if you have a toothache, that is all paid for. If you have cancer, they will send you to Turkey so you can get chemotherapy and put you up in a hotel.    You get a salary that beats the band, particularly in war-torn Syria. If you have a wife, you get a subsidy for her. Your rent is free. If you have children, you get subsidies for each child. If you take care of your parents and your in-laws, you get subsidies for them as well. It is like joining the Communist Party in the decaying days of the Soviet Union. There is a nomenklatura, a new class of jihadists.    And part of this ideological propaganda and exportation is what I would call a jihadist internationale. There are main planks to this. We have all heard about the messianic, apocalyptic vision that they espouse. The end days will come in Dabiq, the suburb of Aleppo, where the armies of Rome will meet the armies of Islam, and Islam will be victorious.    But there is also a political project that underwrites this. Let's not forget, the people who run this organization standing behind Abu Bakr al-Baghdadi, where did they come from? A lot of them had served in Saddam Hussein's intelligence service, in his military, in the Ba'ath Party. They had training from the Soviet KGB and the Stasi. Abu Khaled, the ISIS defector, told me, ``Now, ISIS doesn't fight so well on the battlefield.'' And he would know, because he trained a lot of the infantry soldiers who went like lemmings to their death in Kobani. In fact, many of them defected or deserted and said, ``We don't want any part of this. We just get bombed the minute we turn up in a house in that city.''    I said, ``So how did they manage to take all this territory?'' He says, ``They have very good tradecraft.'' They are great at spying. They infiltrate rival organizations. If it is the Free Syrian Army, they send an agent into a brigade or battalion of the FSA equipped with $200,000 to $300,000 cash to essentially bribe his way to the top of that organization or the top of that military unit, and all of a sudden he starts manipulating and finessing the activities of the FSA. Some of these groups are backed by the United States and the so-called Friends of Syria.    ISIS takes over territory before the advancing columns of tanks and Humvees and shock troops. They have already cultivated a constituency. They spend a fortune.    Most of the money they are making, by the way--you talk a lot about oil sales, you talk a lot about smuggling of artifacts or human trafficking, that is not it. They have an entire bureaucracy that levies fines and taxes and surcharge on any violation that they deem to be abuse of their penal code or their sharia law.    If you are caught smoking cigarettes, you have to sit for 3 days in a cage in the town al-Bab, if you are in al-Bab, and Aleppo. You also have to pay a fine. If you flee from ISIS-held territory, your house, your property, all of your assets are confiscated. They have a very sophisticated repossession and eminent domain policy. Okay?    This is the reason they want to terrain, because with terrain comes people. They are ``governing,'' lording it over millions of people. And those millions of people are duty bound to pay taxes. I don't have to tell you what happens if they don't or if they defy ISIS or they try to flee.    Like any totalitarian political organization, the likes of which we have seen in the 20th century, there is a carrot-and-stick approach. There is a social outreach program: Come to the paradise of the caliphate, and you can have your Nutella, you can have your video games, you can have your bride, we will populate this land with the cubs and pearls of new generations who will know only life under the true Islam as it should be taught. And then, if you don't, or if you try to stand up or resist ISIS, you will be slaughtered.    You all remember the Al Anbar awakening in the mid-2000 period in Iraq, which was essentially a pragmatic relationship struck between the Sunni tribes and the U.S. military, not because the U.S. military was seen as a liberating force, but it was seen as a more credible alternative than al-Qaeda in Iraq, the head loppers and butchers and rapists and monopolists, the gangsters who stole money from these tribes.    There is no 101st Airborne. There is no 1st Armored Division in Iraq. What there is today, we call it the Iraqi Security Forces, but in reality it is a consortium of Shia militias backed and trained and armed by the Revolutionary Guard Corps of Iran. And many people in the Sunni heartland of Iraq see them as worse occupiers and worse conquerors than     I know it is difficult to wrap your head around this. The Western imagination is very limited in this respect. But believe you me, in Syria we are paying a lot of attention to the Kurds. And every time I go on television or I talk to somebody, all of a sudden the Kurds are going to liberate all of the Middle East.    I have a great deal of respect for the Kurds. I want an independent State of Kurdistan. But I respect them so much that I don't think they would be so foolhardy or stupid to march into Raqqa city or their Deir Ezzor city, much less Palmyra, much less Fallujah or Ramadi. That is just not their game. They are not interested in that, because they know they will be slaughtered.    This what I would call, this sort of strategic region, the Euphrates River Valley, where they are still very much entrenched--I mean, they have lost terrain in northern Syria, they have lost Sinjar, their supply lines across Syria and Iraq have been interdicted--but they are entrenched in the part of those two countries that matters most to them. And the reason is because nobody is coming and presenting a more credible alternative to ISIS. This is the fundamental reality that needs to be appreciated by the United States Government.    A final point. In 2003, when the U.S. invaded Iraq, Abu Musab al-Zarqawi, the founder of the organization known as ISIS, essentially made the case that the United States stupidly blundered into this country and accidentally handed it to the Islamic Republic of Iran. Today, ISIS isn't so sure it was an accident. What they are saying is, actually, no, there is a new coalition of the willing. It is the United States, Russia, mobilized, of course, by the Jews, backed now by Iran, the Shia militias and death squads of Syria and Iraq, Lebanese Hezbollah, and all the apostate or tyrannical Arab regimes in the Middle East and Turkey. There is what I would call a caliphate contra mundum conspiracy theory that ISIS is putting forward.    And the dangerous thing is, if you travel to the region, and I do it a lot, and you talk to Sunnis, they have a hard time telling where ISIS conspiracy theory ends and U.S. foreign policy begins. On a bad day, so do I, frankly. You know, how is that Russia has been allowed to establish a no-fly zone, bombing not ISIS, as even ISIS says in its latest issue of Dabiq, its propaganda magazine, but bombing Free Syrian Army and rebel groups that are fighting both Assad--actually, Assad, Hezbollah, the IRGC, ISIS, and Jabhat al-Nusra all at once, and doing so with, on occasion, sophisticated weapons, but more often than not AK-47s and hand grenades.    You know, this is the thing, geopolitics matters to ISIS. They pay much closer attention to our policy debates and our discussions--they may be watching us on C-SPAN for all I know--than we do to what they are doing in their own terrain, in their own territory.    And, look, if you look at the profiles of these foreign fighters, if you look at the profiles of people who are conducting these terror spectaculars or operations abroad, it is almost out of central casting. They are not fanatical Muslims by birth. In fact, they are first generation. Their parents came to Europe. They made a good trade. They had a good living. They sent their kids to good universities or good finishing schools. And these kids become radicalized remotely. They turn on the television. They see American warplanes dropping bombs on Muslim babies. ISIS is exploiting that like you wouldn't believe.    We look at their atrocities, the immolation of a Jordanian airman. What we are not paying attention to is the other 20 minutes of the video where they are showing literally infants being pulled from the rubble and saying this was courtesy of a Jordanian or Saudi or American bomb. It is very compelling. It is very compelling.    And you don't have to be even a Muslim, much less a pious one or an Islamist, to find it so. And this is the pool of not even hardcore ideologues and supporters, but what I would call the fellow travelers of ISIS that they are drawing strength from. And, indeed, I mean, you may not be interested in the Middle East, but the Middle East is interested in you.    And this is the thing. The leitmotif of U.S. foreign policy today is the more we absent ourselves, the more equilibrium will rise. Qasem Soleimani can be the next David Petraeus. I have got news for you: We are at a more dangerous period now than we were immediately after 9/11, because right now the level of anti-Americanism, it is actually--some of it is grounded in fact. Some of it is grounded in a crushing reality. Five years of attritional warfare, where Bashar Assad has dropped chemical weapons, barrel bombs, you name it, everything but biological and nuclear weapons on his own people, targeting whom? The Sunnis, the exact people we are going to need to fight and defeat ISIS.    And in Iraq, 5 years of tolerating the thuggish regime of Nouri al-Maliki and now providing close air support to who? IRGC-backed proxy groups and militias who are liberating Tikrit only after U.S. F-16s come in. The Sunnis look at us like they hope this is a conspiracy, because if it is incompetence, then they absolutely have no faith in the United States.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Weiss.    Mr. Sanderson.</t>
   </si>
   <si>
+    <t>Sanderson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sanderson. Thank you, Chairman Poe and Ranking Member Keating and distinguished members of the subcommittee for the honor and opportunity to testify before you today on the challenge of ISIS following these recent attacks in Paris, Beirut, and in the skies over Egypt's Sinai Peninsula. I come to you with a perspective of from field work on terrorism and conflict across nearly 70 countries over the last 15 years. This includes interviews this year with current and former ISIS members who ply the border on Turkey's side quite freely.    The question before us today is whether these attacks represent a strategic shift for ISIS, what policy options the U.S. might have, and how those attacks are impacting our understanding of ISIS.    First, the attacks. I do not believe that the three strikes represent a fundamental shift for ISIS, but rather a logical evolution for an organization that is under heavy pressure in some areas, has always looked to strike its enemies, and one which has designs on territory well beyond Syria and Iraq.    But just because these attacks may not be unsurprising does not mean we should not be alarmed. ISIS has claimed three strikes, two conducted by cells trained in Syria and one in Egypt conducted by an ISIS affiliate, which signal that the threat is growing, is very bold, technically adept with both encrypted communications and bomb miniaturization, and that expeditionary, out-of-area attacks are to be expected. We should act aggressively and smartly in countering them.    ISIS has long called for strikes on states such as France, a nation for which ISIS has tremendous hatred and disdain. ISIS also counts hundreds, if not thousands of members who hail from France, affording them plenty of French passport holders who can maneuver in the country, across Europe, and into the United States.    The attack in Lebanon was a bold move for ISIS and was likely carried out in retaliation for Hezbollah's support to the Syrian military. In Egypt, the ISIS affiliate, Sinai Province, has battled with Egyptian forces for years. The group is well aware of Russia's friendship with President Sisi of Egypt and with President Assad of Syria and is certainly mindful of Russia's disposition toward its own citizens who have joined ISIS. And of course, it is likely that the attack on the Russian airliner was as much targeted at Egypt's tourism industry, and by extension the Sisi government in Cairo, as it was on the Russians themselves.    It is important for us to look at statements from ISIS over the past couple of years to understand how these attacks, especially Paris, fit in with the ISIS strategy. The ISIS strategy is focused on establishing and protecting its territory along the Syria-Iraq border and to build influence beyond that space. ISIS has reached out to Muslims the world over calling them to help run, build, and defend the Muslim caliphate. These calls often came with encouragement to attack ISIS enemies and promises that one day they will conquer Rome, shorthand for much of the West.    In the October 2014 issue of their English language publication Dabiq, ISIS spoke of targeting the West and others in the coalition. This included statements such as,        ``At this point in the crusade against the Islamic         State, it is important that attacks take place in every         country that has entered into the alliance against the         Islamic State, especially the U.S., U.K., France,         Australia, and Germany. Every Muslim should get out of         his house, find a crusader and kill them, and the         Islamic State will remain until its banner flies over         Rome.''    It is also important to note that over the last 2 years ISIS has accepted pledges of loyalty from fighters from around the globe, including Libya, Egypt, Yemen, Nigeria, Russia, the Philippines, Pakistan, and many others, further expanding the ISIS footprint on the globe and reminding us that their base in Syria and Iraq is not the extent of their ambition.    What should these attacks tell us about ISIS? Well, the attacks signal that ISIS intends to strike where necessary and when pressured. I fully expect them to target the United States and other members of the anti-ISIS coalition, and of course they have said that they are going to do that. For a group that is so focused on imagery, as seen in the thousands of well-choreographed messages, images, videos distributed every day, this is a group that must be seen as making progress.    These three attacks also tell us that ISIS, its affiliates, and supported cells, are able to strike successfully in hostile territory. In Paris, ISIS executed multiple attacks with several individuals moving between France, Syria, and Belgium, and did so in the midst of very competent law enforcement and intelligence agencies. In Lebanon, ISIS was able to operate covertly in a denied area crawling with highly suspicious, alert, and well-armed, well-trained Lebanese Hezbollah. Finally, in Egypt, ISIS affiliate Sinai Province was able to penetrate airport security and emplace a bomb that destroyed a Russian airliner, killing 224 people.    These successful attacks are alarming for reasons far beyond the skillful tradecraft that was put on display. The impact is also felt in the recruiting realm. Given that ISIS offers a sense of mission, purpose, adventure, and revenge for young radicalized people, such attacks serve as a tremendous stimulant for these potential recruits. The attacks also demonstrate the possibilities for lone wolves or organized cells and signal that ISIS can make them happen over distance, in unfriendly spaces, and for little cost. From their perch on the margins of society, potential ISIS members witnessed the Paris, Beirut, and Sinai operations, and they want in on that action.    Let's now consider the implications and possible responses. The most recent ISIS attacks present troubling implications for U.S. security and our anti-ISIS strategy. In Lebanon, ISIS has struck the state that remains fragile and which borders Israel and is home to 1 million Syrian refugees. The attack on the Russian airliner demonstrates that commercial aviation remains a very attractive, viable target for terrorists.    The Paris attack offers the most significant concern for U.S. security. This long distance, sophisticated, high-risk ISIS operation succeeded on all levels. A leading member of the anti-ISIS coalition and close ally of the U.S. suffered a dramatic blow.    With these examples and others in hand, it is not difficult to envision ISIS supporting a cell or lone wolves in similar operations inside the U.S. This would represent a bigger challenge for ISIS, but I do not think it is impossible by any means.    Our response must be well conceived, precise, forceful, multidimensional, integrated, and enduring. But I will state upfront, I do not have a lot of confidence that we will succeed in many visible and tangible ways. Our country is not currently in the right frame of mind to take on this challenge. Many of our partners are incredibly problematic and the conditions and factors at play are so numerous and immensely complicated that I hardly know where to begin.    Let me suggest some of the key actions that are needed in a campaign to gain some advantage in what will turn out to be an evolution in the violence and not a clear-cut victory. The Obama administration's objection to putting large forces on the ground is well-founded, but we need a much more aggressive posture in what we are doing now.    The most important things we can strive for are political progress in both Syria and Iraq, ISIS leadership decapitation, more targeted strikes from the air, more flexible ROE with those strikes, territory denial, counterfinance and countermessaging.    To make some progress in these areas we need to strengthen efforts at diplomacy, intelligence, special operations, the air strikes, training local forces, anticorruption, counterradicalization, good governance, and by addressing socioeconomic and political conditions where ISIS operates and, importantly, where they recruit. That list is a very tall order and it is not even exhaustive.    I realize that we have ongoing efforts in each of these areas, but we clearly need to do more. We know what ISIS can do and we know where else they want to take the battle. So it is time to come together politically and to attack ISIS aggressively and intelligently. And if we as Americans lead, others will stand with us. Let's not wait for Washington to be hit before doing what is right and what is possible.</t>
   </si>
   <si>
@@ -196,6 +235,12 @@
     <t>400641</t>
   </si>
   <si>
+    <t>Higgins</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Mr. Chairman.    Mr. Weiss, you were making a point during my colleague's questioning that you said was important. Do you want to finish it?</t>
   </si>
   <si>
@@ -257,6 +302,12 @@
   </si>
   <si>
     <t>412595</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Robin</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Kelly. Since my day has started, it seems like I have been in meetings dealing with this topic. And one thing that came up was about Turkey and their questionable partnership, are they really true partners. Another meeting I was in, they spoke about how porous their borders are and a lot of things are going through Turkey that are causing problems for the United States and others.    What do you think that we can do to truly get them committed to defeating ISIS, or what can NATO do, if you think they aren't true partners or really committed?</t>
@@ -650,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,7 +709,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,1877 +731,2196 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G45" t="s">
+        <v>73</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G47" t="s">
+        <v>73</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G49" t="s">
+        <v>73</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s">
+        <v>38</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G53" t="s">
+        <v>73</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G55" t="s">
+        <v>73</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G57" t="s">
+        <v>73</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>59</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G59" t="s">
+        <v>73</v>
+      </c>
       <c r="H59" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>59</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G61" t="s">
+        <v>73</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>59</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G63" t="s">
+        <v>73</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G65" t="s">
+        <v>96</v>
+      </c>
       <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G67" t="s">
+        <v>96</v>
+      </c>
       <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G68" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
+        <v>38</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
       <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>59</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G77" t="s">
+        <v>73</v>
+      </c>
       <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
       <c r="H79" t="s">
-        <v>95</v>
+        <v>18</v>
+      </c>
+      <c r="I79" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97752.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97752.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412435</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Keating</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400652</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Poe</t>
   </si>
   <si>
@@ -77,6 +86,9 @@
   </si>
   <si>
     <t>400433</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Wilson</t>
@@ -701,7 +713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,7 +721,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,2193 +746,2356 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" t="s">
-        <v>38</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" t="s">
-        <v>38</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
-      </c>
-      <c r="G56" t="s">
-        <v>38</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" t="s">
-        <v>38</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>42</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" t="s">
-        <v>38</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G61" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H61" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H63" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
-      </c>
-      <c r="G64" t="s">
-        <v>31</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G65" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
-      </c>
-      <c r="G66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>45</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G67" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="H67" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
-      </c>
-      <c r="G68" t="s">
-        <v>35</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>39</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
-      </c>
-      <c r="G69" t="s">
-        <v>38</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>42</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
-      </c>
-      <c r="G73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
-      </c>
-      <c r="G74" t="s">
-        <v>41</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
-      </c>
-      <c r="G75" t="s">
-        <v>31</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G77" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H77" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
-      </c>
-      <c r="G78" t="s">
-        <v>35</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>39</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I79" t="s">
-        <v>112</v>
+        <v>21</v>
+      </c>
+      <c r="J79" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
